--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9CA83A-57B8-C44F-8332-B45140DE42B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63540B8-1588-9C49-87A6-D15154E2ABD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="18540" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,8 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="MingLiU"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -419,7 +420,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -488,9 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C2" s="3">
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="C2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63540B8-1588-9C49-87A6-D15154E2ABD3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18540" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18540" windowHeight="7020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -58,9 +53,6 @@
     <t>Weather</t>
   </si>
   <si>
-    <t>Environment</t>
-  </si>
-  <si>
     <t>Post_url</t>
   </si>
   <si>
@@ -68,13 +60,61 @@
   </si>
   <si>
     <t>Note</t>
+  </si>
+  <si>
+    <t>疣胸琉璃蟻</t>
+  </si>
+  <si>
+    <t>Dolichoderus_thoracicus</t>
+  </si>
+  <si>
+    <t>南投集集特生中心</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>停車場附近有樹叢與水池</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
+  </si>
+  <si>
+    <t>Invasive</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>Parking time</t>
+  </si>
+  <si>
+    <t>A week</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Trees nearby</t>
+  </si>
+  <si>
+    <t>Land use type</t>
+  </si>
+  <si>
+    <t>Urban land</t>
+  </si>
+  <si>
+    <t>https://www.fs.usda.gov/detail/r5/landmanagement/resourcemanagement/?cid=fsbdev3_048169</t>
+  </si>
+  <si>
+    <t>https://pubs.er.usgs.gov/publication/pp964</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -95,8 +135,29 @@
       <charset val="136"/>
     </font>
     <font>
+      <u/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -124,12 +185,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,12 +204,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -416,29 +494,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
-    <col min="9" max="9" width="11.375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="13.125" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" customWidth="1"/>
+    <col min="9" max="9" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="13" width="12.453125" customWidth="1"/>
+    <col min="14" max="14" width="12.1796875" customWidth="1"/>
+    <col min="15" max="15" width="13.08984375" customWidth="1"/>
+    <col min="16" max="16" width="23.453125" customWidth="1"/>
+    <col min="17" max="17" width="22.453125" customWidth="1"/>
+    <col min="18" max="18" width="11.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -449,50 +531,139 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:18" s="3" customFormat="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>20220814</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5">
+        <v>120.800751607164</v>
+      </c>
+      <c r="K2" s="5">
+        <v>23.829187549321301</v>
+      </c>
+      <c r="L2" s="3">
+        <v>249</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="P2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18540" windowHeight="7020"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Parking_time</t>
+  </si>
+  <si>
     <t>Species_Chinese</t>
   </si>
   <si>
@@ -47,74 +50,152 @@
     <t>Latitude</t>
   </si>
   <si>
-    <t>Altitude</t>
+    <t>Elevation</t>
   </si>
   <si>
     <t>Weather</t>
   </si>
   <si>
+    <t>Land_use_type</t>
+  </si>
+  <si>
+    <t>Tree_nearby</t>
+  </si>
+  <si>
+    <t>Surrounding_description</t>
+  </si>
+  <si>
     <t>Post_url</t>
   </si>
   <si>
-    <t>中文環境概述</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
+    <t>A week</t>
+  </si>
+  <si>
     <t>疣胸琉璃蟻</t>
   </si>
   <si>
     <t>Dolichoderus_thoracicus</t>
   </si>
   <si>
+    <t>Invasive</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
     <t>南投集集特生中心</t>
   </si>
   <si>
     <t>Cloudy</t>
   </si>
   <si>
+    <t>Urban land</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>停車場附近有樹叢與水池</t>
   </si>
   <si>
     <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
   </si>
   <si>
-    <t>Invasive</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>Parking time</t>
-  </si>
-  <si>
-    <t>A week</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Trees nearby</t>
-  </si>
-  <si>
-    <t>Land use type</t>
-  </si>
-  <si>
-    <t>Urban land</t>
-  </si>
-  <si>
-    <t>https://www.fs.usda.gov/detail/r5/landmanagement/resourcemanagement/?cid=fsbdev3_048169</t>
-  </si>
-  <si>
-    <t>https://pubs.er.usgs.gov/publication/pp964</t>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A running number for the reported case</t>
+  </si>
+  <si>
+    <t>ISO representation YYYYMMDD</t>
+  </si>
+  <si>
+    <t>HH:MM</t>
+  </si>
+  <si>
+    <t>The parking duration of the vehicle</t>
+  </si>
+  <si>
+    <t>Chinese species name</t>
+  </si>
+  <si>
+    <t>Species scientific name</t>
+  </si>
+  <si>
+    <t>Native/Invasive</t>
+  </si>
+  <si>
+    <t>Car/Scooter/Others</t>
+  </si>
+  <si>
+    <t>The location of the reported case</t>
+  </si>
+  <si>
+    <t>Longitude in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>Latitude in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>Elevation in meter</t>
+  </si>
+  <si>
+    <t>Sunny/Cloudy/Rainy</t>
+  </si>
+  <si>
+    <t>Land_use_type_manual</t>
+  </si>
+  <si>
+    <t>USGS land use classification based on Anderson et. al, 1976. A Land Use And Land Cover Classification System For Use With Remote Sensor Data (https://www.fs.usda.gov/detail/r5/landmanagement/resourcemanagement/?cid=fsbdev3_048169): Urban_land/Agricultural_land/Rangeland/Forest_land/Water/Wetland/Barren_land</t>
+  </si>
+  <si>
+    <t>Whether there is any tree within a 10-meter radius around the vehicle</t>
+  </si>
+  <si>
+    <t>The description of the surroundings of the vehicles from the reporter</t>
+  </si>
+  <si>
+    <t>The url link to the facebook post</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Land_use_type_MODIS</t>
+  </si>
+  <si>
+    <t>Land use type of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/land_cover.html</t>
+  </si>
+  <si>
+    <t>NDVI_MODIS</t>
+  </si>
+  <si>
+    <t>NDVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
+  </si>
+  <si>
+    <t>EVI_MODIS</t>
+  </si>
+  <si>
+    <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -122,17 +203,74 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="MingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="BiauKai"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -142,27 +280,99 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +385,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -184,54 +580,348 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,181 +1179,351 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="4" width="14.7265625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" customWidth="1"/>
+    <col min="2" max="2" width="12.45625" customWidth="1"/>
+    <col min="3" max="4" width="14.725" customWidth="1"/>
+    <col min="5" max="5" width="20.0875" customWidth="1"/>
+    <col min="6" max="6" width="21.18125" customWidth="1"/>
+    <col min="7" max="7" width="16.63125" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="9" max="9" width="16.18125" customWidth="1"/>
+    <col min="10" max="10" width="11.3625" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="13" width="12.453125" customWidth="1"/>
-    <col min="14" max="14" width="12.1796875" customWidth="1"/>
-    <col min="15" max="15" width="13.08984375" customWidth="1"/>
-    <col min="16" max="16" width="23.453125" customWidth="1"/>
-    <col min="17" max="17" width="22.453125" customWidth="1"/>
-    <col min="18" max="18" width="11.08984375" customWidth="1"/>
+    <col min="12" max="13" width="12.45625" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="13.0875" customWidth="1"/>
+    <col min="16" max="16" width="22.45625" customWidth="1"/>
+    <col min="17" max="17" width="66.4375" customWidth="1"/>
+    <col min="18" max="18" width="11.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:18">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" s="7" customFormat="1" spans="1:17">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>20230301</v>
+      </c>
+      <c r="C2" s="9">
+        <v>0.673611111111111</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="J2" s="10">
+        <v>120.800751607164</v>
+      </c>
+      <c r="K2" s="10">
+        <v>23.8291875493213</v>
+      </c>
+      <c r="L2" s="7">
+        <v>249</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" s="3" customFormat="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>20220814</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.67361111111111116</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="5">
-        <v>120.800751607164</v>
-      </c>
-      <c r="K2" s="5">
-        <v>23.829187549321301</v>
-      </c>
-      <c r="L2" s="3">
-        <v>249</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="Q2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>19</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1"/>
+    <hyperlink ref="Q2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.5625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.0625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" ht="70" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" ht="35" spans="1:2">
+      <c r="A20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="35" spans="1:2">
+      <c r="A21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="35" spans="1:2">
+      <c r="A22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView windowWidth="18530" windowHeight="7020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -41,13 +41,25 @@
     <t>Vehicle_type</t>
   </si>
   <si>
+    <t>Vehicle_color</t>
+  </si>
+  <si>
     <t>Location</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Location_lon</t>
+  </si>
+  <si>
+    <t>Location_lat</t>
+  </si>
+  <si>
+    <t>Destination_lon</t>
+  </si>
+  <si>
+    <t>Destination_lat</t>
   </si>
   <si>
     <t>Elevation</t>
@@ -86,9 +98,15 @@
     <t>Car</t>
   </si>
   <si>
+    <t>White</t>
+  </si>
+  <si>
     <t>南投集集特生中心</t>
   </si>
   <si>
+    <t>國立臺灣大學</t>
+  </si>
+  <si>
     <t>Cloudy</t>
   </si>
   <si>
@@ -134,13 +152,25 @@
     <t>Car/Scooter/Others</t>
   </si>
   <si>
-    <t>The location of the reported case</t>
-  </si>
-  <si>
-    <t>Longitude in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>Latitude in decimal degrees (DD)</t>
+    <t>The color of the vehicle</t>
+  </si>
+  <si>
+    <t>The location of the vehicle</t>
+  </si>
+  <si>
+    <t>The intended destination of the vehicle</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle destination in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle destination in decimal degrees (DD)</t>
   </si>
   <si>
     <t>Elevation in meter</t>
@@ -191,9 +221,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -218,7 +248,7 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
+      <name val="MingLiU"/>
       <charset val="134"/>
     </font>
     <font>
@@ -229,14 +259,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -251,25 +281,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,6 +296,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -290,30 +313,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,11 +327,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,22 +357,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,6 +372,35 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -387,19 +417,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,37 +573,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,121 +597,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,11 +613,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,75 +708,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,131 +731,131 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -851,16 +881,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1185,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="1"/>
@@ -1199,129 +1229,156 @@
     <col min="6" max="6" width="21.18125" customWidth="1"/>
     <col min="7" max="7" width="16.63125" customWidth="1"/>
     <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="9" width="16.18125" customWidth="1"/>
-    <col min="10" max="10" width="11.3625" customWidth="1"/>
-    <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="13" width="12.45625" customWidth="1"/>
-    <col min="14" max="14" width="14.5" customWidth="1"/>
-    <col min="15" max="15" width="13.0875" customWidth="1"/>
-    <col min="16" max="16" width="22.45625" customWidth="1"/>
-    <col min="17" max="17" width="66.4375" customWidth="1"/>
-    <col min="18" max="18" width="11.0875" customWidth="1"/>
+    <col min="9" max="10" width="16.18125" customWidth="1"/>
+    <col min="11" max="11" width="17.875" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="12.1875" customWidth="1"/>
+    <col min="14" max="14" width="14.9375" customWidth="1"/>
+    <col min="15" max="15" width="13.375" customWidth="1"/>
+    <col min="16" max="17" width="12.45625" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="13.0875" customWidth="1"/>
+    <col min="20" max="20" width="22.45625" customWidth="1"/>
+    <col min="21" max="21" width="66.4375" customWidth="1"/>
+    <col min="22" max="22" width="11.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:22">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" s="7" customFormat="1" spans="1:17">
-      <c r="A2" s="7">
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" s="5" customFormat="1" ht="19.5" spans="1:21">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>20230301</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>0.673611111111111</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="E2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="10">
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="10">
         <v>120.800751607164</v>
       </c>
-      <c r="K2" s="10">
+      <c r="M2" s="10">
         <v>23.8291875493213</v>
       </c>
-      <c r="L2" s="7">
+      <c r="N2" s="5">
+        <v>121.539881230166</v>
+      </c>
+      <c r="O2" s="5">
+        <v>25.0183496088001</v>
+      </c>
+      <c r="P2" s="5">
         <v>249</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>28</v>
+      <c r="Q2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
+    <hyperlink ref="U2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1332,10 +1389,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
@@ -1346,10 +1403,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1357,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1365,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1373,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1381,7 +1438,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1389,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1397,7 +1454,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1405,7 +1462,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1413,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1421,7 +1478,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -1430,40 +1487,42 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>47</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" ht="70" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1471,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1479,7 +1538,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1487,39 +1546,71 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="70" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" ht="35" spans="1:2">
-      <c r="A20" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" ht="35" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" ht="35" spans="1:2">
-      <c r="A22" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B19" s="4" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
+      <c r="A24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" ht="35" spans="1:2">
+      <c r="A25" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="35" spans="1:2">
+      <c r="A26" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -68,133 +68,130 @@
     <t>Weather</t>
   </si>
   <si>
+    <t>Tree_nearby</t>
+  </si>
+  <si>
+    <t>Surrounding_description</t>
+  </si>
+  <si>
+    <t>Post_url</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>A week</t>
+  </si>
+  <si>
+    <t>疣胸琉璃蟻</t>
+  </si>
+  <si>
+    <t>Dolichoderus_thoracicus</t>
+  </si>
+  <si>
+    <t>Invasive</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>南投集集特生中心</t>
+  </si>
+  <si>
+    <t>國立臺灣大學</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>停車場附近有樹叢與水池</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A running number for the reported case</t>
+  </si>
+  <si>
+    <t>ISO representation YYYYMMDD</t>
+  </si>
+  <si>
+    <t>HH:MM</t>
+  </si>
+  <si>
+    <t>The parking duration of the vehicle</t>
+  </si>
+  <si>
+    <t>Chinese species name</t>
+  </si>
+  <si>
+    <t>Species scientific name</t>
+  </si>
+  <si>
+    <t>Native/Invasive</t>
+  </si>
+  <si>
+    <t>Car/Scooter/Others</t>
+  </si>
+  <si>
+    <t>The color of the vehicle</t>
+  </si>
+  <si>
+    <t>The location of the vehicle</t>
+  </si>
+  <si>
+    <t>The intended destination of the vehicle</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle destination in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle destination in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>Elevation in meter</t>
+  </si>
+  <si>
+    <t>Sunny/Cloudy/Rainy</t>
+  </si>
+  <si>
+    <t>Whether there is any tree within a 10-meter radius around the vehicle</t>
+  </si>
+  <si>
+    <t>The description of the surroundings of the vehicles from the reporter</t>
+  </si>
+  <si>
+    <t>The url link to the facebook post</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Land_use_type</t>
   </si>
   <si>
-    <t>Tree_nearby</t>
-  </si>
-  <si>
-    <t>Surrounding_description</t>
-  </si>
-  <si>
-    <t>Post_url</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>A week</t>
-  </si>
-  <si>
-    <t>疣胸琉璃蟻</t>
-  </si>
-  <si>
-    <t>Dolichoderus_thoracicus</t>
-  </si>
-  <si>
-    <t>Invasive</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>南投集集特生中心</t>
-  </si>
-  <si>
-    <t>國立臺灣大學</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Urban land</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>停車場附近有樹叢與水池</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>A running number for the reported case</t>
-  </si>
-  <si>
-    <t>ISO representation YYYYMMDD</t>
-  </si>
-  <si>
-    <t>HH:MM</t>
-  </si>
-  <si>
-    <t>The parking duration of the vehicle</t>
-  </si>
-  <si>
-    <t>Chinese species name</t>
-  </si>
-  <si>
-    <t>Species scientific name</t>
-  </si>
-  <si>
-    <t>Native/Invasive</t>
-  </si>
-  <si>
-    <t>Car/Scooter/Others</t>
-  </si>
-  <si>
-    <t>The color of the vehicle</t>
-  </si>
-  <si>
-    <t>The location of the vehicle</t>
-  </si>
-  <si>
-    <t>The intended destination of the vehicle</t>
-  </si>
-  <si>
-    <t>The longitude of the vehicle location in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The latitude of the vehicle location in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The longitude of the vehicle destination in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The latitude of the vehicle destination in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>Elevation in meter</t>
-  </si>
-  <si>
-    <t>Sunny/Cloudy/Rainy</t>
-  </si>
-  <si>
-    <t>Land_use_type_manual</t>
-  </si>
-  <si>
-    <t>USGS land use classification based on Anderson et. al, 1976. A Land Use And Land Cover Classification System For Use With Remote Sensor Data (https://www.fs.usda.gov/detail/r5/landmanagement/resourcemanagement/?cid=fsbdev3_048169): Urban_land/Agricultural_land/Rangeland/Forest_land/Water/Wetland/Barren_land</t>
-  </si>
-  <si>
-    <t>Whether there is any tree within a 10-meter radius around the vehicle</t>
-  </si>
-  <si>
-    <t>The description of the surroundings of the vehicles from the reporter</t>
-  </si>
-  <si>
-    <t>The url link to the facebook post</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>USGS land use classification based on Anderson et. al, 1976. A Land Use And Land Cover Classification System For Use With Remote Sensor Data
+Taiwan land use type reference: Chen, Y. Y., Huang, W., Wang, W. H., Juang, J. Y., Hong, J. S., Kato, T., &amp; Luyssaert, S. (2019). Reconstructing Taiwan’s land cover changes between 1904 and 2015 from historical maps and satellite images. Scientific reports, 9(1), 3643.
+Data: https://zenodo.org/record/1256484#.ZAAxQXZBy44
+R code: https://rpubs.com/yiyingchen/Landuse4</t>
   </si>
   <si>
     <t>Land_use_type_MODIS</t>
@@ -259,36 +256,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -303,6 +270,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -320,6 +324,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -327,17 +347,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,11 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -365,38 +392,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,187 +414,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +605,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -635,26 +686,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,51 +705,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -731,135 +728,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,9 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1215,10 +1209,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="1"/>
@@ -1236,14 +1230,13 @@
     <col min="14" max="14" width="14.9375" customWidth="1"/>
     <col min="15" max="15" width="13.375" customWidth="1"/>
     <col min="16" max="17" width="12.45625" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
-    <col min="19" max="19" width="13.0875" customWidth="1"/>
-    <col min="20" max="20" width="22.45625" customWidth="1"/>
-    <col min="21" max="21" width="66.4375" customWidth="1"/>
-    <col min="22" max="22" width="11.0875" customWidth="1"/>
+    <col min="18" max="18" width="13.0875" customWidth="1"/>
+    <col min="19" max="19" width="22.45625" customWidth="1"/>
+    <col min="20" max="20" width="66.4375" customWidth="1"/>
+    <col min="21" max="21" width="11.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:21">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1265,7 +1258,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1307,78 +1300,72 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="19.5" spans="1:20">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>20230301</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.673611111111111</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" s="5" customFormat="1" ht="19.5" spans="1:21">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>20230301</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.673611111111111</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9">
+        <v>120.800751607164</v>
+      </c>
+      <c r="M2" s="9">
+        <v>23.8291875493213</v>
+      </c>
+      <c r="N2" s="4">
+        <v>121.539881230166</v>
+      </c>
+      <c r="O2" s="4">
+        <v>25.0183496088001</v>
+      </c>
+      <c r="P2" s="4">
+        <v>249</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="10">
-        <v>120.800751607164</v>
-      </c>
-      <c r="M2" s="10">
-        <v>23.8291875493213</v>
-      </c>
-      <c r="N2" s="5">
-        <v>121.539881230166</v>
-      </c>
-      <c r="O2" s="5">
-        <v>25.0183496088001</v>
-      </c>
-      <c r="P2" s="5">
-        <v>249</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U2" s="11" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="U2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
+    <hyperlink ref="T2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1391,8 +1378,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
@@ -1403,10 +1390,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1414,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1422,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1430,7 +1417,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1438,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1446,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1454,7 +1441,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1462,7 +1449,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1470,7 +1457,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1478,7 +1465,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -1487,7 +1474,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1496,7 +1483,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1505,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1514,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1522,7 +1509,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1530,7 +1517,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1538,7 +1525,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1546,15 +1533,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="70" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1562,7 +1549,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1570,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1578,39 +1565,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" ht="122.5" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B24" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
-      <c r="A24" s="5" t="s">
+    <row r="25" ht="35" spans="1:2">
+      <c r="A25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
-      <c r="A25" s="5" t="s">
+    <row r="26" ht="35" spans="1:2">
+      <c r="A26" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="26" ht="35" spans="1:2">
-      <c r="A26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>ID</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Parking_time</t>
+    <t>Parking_day</t>
   </si>
   <si>
     <t>Species_Chinese</t>
@@ -62,127 +62,135 @@
     <t>Destination_lat</t>
   </si>
   <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Tree_nearby</t>
+  </si>
+  <si>
+    <t>Surrounding_description</t>
+  </si>
+  <si>
+    <t>Post_url</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>疣胸琉璃蟻</t>
+  </si>
+  <si>
+    <t>Dolichoderus_thoracicus</t>
+  </si>
+  <si>
+    <t>Invasive</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>南投集集特生中心</t>
+  </si>
+  <si>
+    <t>國立臺灣大學</t>
+  </si>
+  <si>
+    <t>Cloudy</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>停車場附近有樹叢與水池</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
+  </si>
+  <si>
+    <t>知本森林遊樂區</t>
+  </si>
+  <si>
+    <t>竹南</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，車頭靠進灌叢</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>A running number for the reported case</t>
+  </si>
+  <si>
+    <t>ISO representation YYYYMMDD</t>
+  </si>
+  <si>
+    <t>HH:MM</t>
+  </si>
+  <si>
+    <t>The parking duration of the vehicle in day</t>
+  </si>
+  <si>
+    <t>Chinese species name</t>
+  </si>
+  <si>
+    <t>Species scientific name</t>
+  </si>
+  <si>
+    <t>Native/Invasive</t>
+  </si>
+  <si>
+    <t>Car/Scooter/Others</t>
+  </si>
+  <si>
+    <t>The color of the vehicle</t>
+  </si>
+  <si>
+    <t>The location of the vehicle</t>
+  </si>
+  <si>
+    <t>The intended destination of the vehicle</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle location in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The longitude of the vehicle destination in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>The latitude of the vehicle destination in decimal degrees (DD)</t>
+  </si>
+  <si>
+    <t>Sunny/Cloudy/Rainy</t>
+  </si>
+  <si>
+    <t>Whether there is any tree within a 10-meter radius around the vehicle</t>
+  </si>
+  <si>
+    <t>The description of the surroundings of the vehicles from the reporter</t>
+  </si>
+  <si>
+    <t>The url link to the facebook post</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Elevation</t>
   </si>
   <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Tree_nearby</t>
-  </si>
-  <si>
-    <t>Surrounding_description</t>
-  </si>
-  <si>
-    <t>Post_url</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>A week</t>
-  </si>
-  <si>
-    <t>疣胸琉璃蟻</t>
-  </si>
-  <si>
-    <t>Dolichoderus_thoracicus</t>
-  </si>
-  <si>
-    <t>Invasive</t>
-  </si>
-  <si>
-    <t>Car</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>南投集集特生中心</t>
-  </si>
-  <si>
-    <t>國立臺灣大學</t>
-  </si>
-  <si>
-    <t>Cloudy</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>停車場附近有樹叢與水池</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
-  </si>
-  <si>
-    <t>Column</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>A running number for the reported case</t>
-  </si>
-  <si>
-    <t>ISO representation YYYYMMDD</t>
-  </si>
-  <si>
-    <t>HH:MM</t>
-  </si>
-  <si>
-    <t>The parking duration of the vehicle</t>
-  </si>
-  <si>
-    <t>Chinese species name</t>
-  </si>
-  <si>
-    <t>Species scientific name</t>
-  </si>
-  <si>
-    <t>Native/Invasive</t>
-  </si>
-  <si>
-    <t>Car/Scooter/Others</t>
-  </si>
-  <si>
-    <t>The color of the vehicle</t>
-  </si>
-  <si>
-    <t>The location of the vehicle</t>
-  </si>
-  <si>
-    <t>The intended destination of the vehicle</t>
-  </si>
-  <si>
-    <t>The longitude of the vehicle location in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The latitude of the vehicle location in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The longitude of the vehicle destination in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>The latitude of the vehicle destination in decimal degrees (DD)</t>
-  </si>
-  <si>
-    <t>Elevation in meter</t>
-  </si>
-  <si>
-    <t>Sunny/Cloudy/Rainy</t>
-  </si>
-  <si>
-    <t>Whether there is any tree within a 10-meter radius around the vehicle</t>
-  </si>
-  <si>
-    <t>The description of the surroundings of the vehicles from the reporter</t>
-  </si>
-  <si>
-    <t>The url link to the facebook post</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>Elevation of the vehicle location in meter
+Elevation data can be accessed via the elevatr pacakge
+https://cran.r-project.org/web/packages/elevatr/vignettes/introduction_to_elevatr.html#:~:text=Point%20elevation%20is%20accessed%20from,reported%20elevation%20for%20that%20location.</t>
   </si>
   <si>
     <t>Land_use_type</t>
@@ -216,13 +224,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -249,6 +258,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
@@ -263,6 +278,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -271,9 +294,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,14 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,78 +399,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,13 +413,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,6 +429,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,174 +604,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,6 +620,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -619,15 +682,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,50 +701,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -710,7 +725,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,135 +743,135 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -875,19 +890,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,34 +1245,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="2"/>
   <cols>
-    <col min="2" max="2" width="12.45625" customWidth="1"/>
-    <col min="3" max="4" width="14.725" customWidth="1"/>
-    <col min="5" max="5" width="20.0875" customWidth="1"/>
-    <col min="6" max="6" width="21.18125" customWidth="1"/>
-    <col min="7" max="7" width="16.63125" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" customWidth="1"/>
-    <col min="9" max="10" width="16.18125" customWidth="1"/>
-    <col min="11" max="11" width="17.875" customWidth="1"/>
-    <col min="12" max="12" width="12.5" customWidth="1"/>
-    <col min="13" max="13" width="12.1875" customWidth="1"/>
-    <col min="14" max="14" width="14.9375" customWidth="1"/>
-    <col min="15" max="15" width="13.375" customWidth="1"/>
-    <col min="16" max="17" width="12.45625" customWidth="1"/>
-    <col min="18" max="18" width="13.0875" customWidth="1"/>
-    <col min="19" max="19" width="22.45625" customWidth="1"/>
-    <col min="20" max="20" width="66.4375" customWidth="1"/>
-    <col min="21" max="21" width="11.0875" customWidth="1"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="12.45625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.725" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.725" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.0875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.18125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.63125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.18125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.1875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.9375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.45625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.0875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="26.5625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="66.4375" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.0875" style="7" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1285,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1258,7 +1297,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1297,48 +1336,45 @@
       <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" s="4" customFormat="1" ht="19.5" spans="1:20">
+    </row>
+    <row r="2" s="4" customFormat="1" ht="19.5" spans="1:19">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>20230301</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="11">
         <v>0.673611111111111</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="12">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="K2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="9">
+      <c r="L2" s="15">
         <v>120.800751607164</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="15">
         <v>23.8291875493213</v>
       </c>
       <c r="N2" s="4">
@@ -1347,25 +1383,69 @@
       <c r="O2" s="4">
         <v>25.0183496088001</v>
       </c>
-      <c r="P2" s="4">
-        <v>249</v>
+      <c r="P2" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="7">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7">
+        <v>20190517</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="K3" s="16" t="s">
         <v>32</v>
+      </c>
+      <c r="L3" s="7">
+        <v>120.991599</v>
+      </c>
+      <c r="M3" s="7">
+        <v>22.686784</v>
+      </c>
+      <c r="N3" s="7">
+        <v>120.873494840486</v>
+      </c>
+      <c r="O3" s="7">
+        <v>24.6887400162283</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="T2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1378,8 +1458,8 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
@@ -1390,10 +1470,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1401,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1409,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1417,7 +1497,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1425,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1433,7 +1513,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1441,7 +1521,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1449,7 +1529,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1457,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1465,7 +1545,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -1474,7 +1554,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -1483,7 +1563,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -1492,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G13" s="3"/>
     </row>
@@ -1501,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1509,7 +1589,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1517,7 +1597,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1525,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1533,7 +1613,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1541,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1549,7 +1629,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1557,47 +1637,47 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="87.5" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="24" ht="35" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="25" ht="35" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="35" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -218,20 +218,19 @@
   </si>
   <si>
     <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/577622054080487/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="7">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -277,144 +276,8 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,194 +290,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -622,256 +299,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -881,7 +319,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -896,10 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -908,7 +346,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -923,61 +361,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1239,39 +634,39 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.45625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.725" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.725" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.0875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.18125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.63125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="7" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="16.18125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.1875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.9375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.45625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.0875" style="7" customWidth="1"/>
-    <col min="18" max="18" width="26.5625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="66.4375" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.0875" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.1796875" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="26.54296875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="67.6328125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" style="7" customWidth="1"/>
     <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
@@ -1337,7 +732,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" s="4" customFormat="1" ht="19.5" spans="1:19">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="19.5">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1345,7 +740,7 @@
         <v>20230301</v>
       </c>
       <c r="C2" s="11">
-        <v>0.673611111111111</v>
+        <v>0.67361111111111105</v>
       </c>
       <c r="D2" s="12">
         <v>7</v>
@@ -1375,13 +770,13 @@
         <v>120.800751607164</v>
       </c>
       <c r="M2" s="15">
-        <v>23.8291875493213</v>
+        <v>23.829187549321301</v>
       </c>
       <c r="N2" s="4">
         <v>121.539881230166</v>
       </c>
       <c r="O2" s="4">
-        <v>25.0183496088001</v>
+        <v>25.018349608800101</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>27</v>
@@ -1396,7 +791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:20" ht="18.75">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -1404,7 +799,7 @@
         <v>20190517</v>
       </c>
       <c r="C3" s="13">
-        <v>0.708333333333333</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="D3" s="8">
         <v>0.625</v>
@@ -1422,16 +817,16 @@
         <v>32</v>
       </c>
       <c r="L3" s="7">
-        <v>120.991599</v>
+        <v>120.99159899999999</v>
       </c>
       <c r="M3" s="7">
-        <v>22.686784</v>
+        <v>22.686783999999999</v>
       </c>
       <c r="N3" s="7">
         <v>120.873494840486</v>
       </c>
       <c r="O3" s="7">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>27</v>
@@ -1442,33 +837,35 @@
       <c r="R3" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="S3" s="18" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577058697470156"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.5625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.0625" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1476,7 +873,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1484,7 +881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1492,7 +889,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1500,7 +897,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1508,7 +905,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +913,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +921,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +929,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1576,7 +973,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1584,7 +981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1640,7 +1037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="90">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1648,7 +1045,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="126">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
@@ -1656,7 +1053,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="36">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -1664,7 +1061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="36">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1672,7 +1069,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="36">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1682,6 +1079,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90455C1-BE06-E549-AC8B-37B8CDE44263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -226,11 +232,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -242,19 +248,20 @@
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="MingLiU"/>
-      <charset val="134"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="14"/>
@@ -267,14 +274,20 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="BiauKai"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,10 +347,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -346,7 +359,7 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -377,6 +390,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -639,38 +655,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="16.1796875" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.90625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="26.54296875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="67.6328125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="26.5" style="7" customWidth="1"/>
+    <col min="19" max="19" width="67.625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="7" customWidth="1"/>
     <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -732,7 +748,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="19.5">
+    <row r="2" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -791,7 +807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="18.75">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -804,6 +820,15 @@
       <c r="D3" s="8">
         <v>0.625</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
@@ -842,9 +867,10 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -852,20 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -873,7 +899,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -881,7 +907,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -889,7 +915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -897,7 +923,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -905,7 +931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -913,7 +939,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,7 +947,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -929,7 +955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,7 +963,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -946,7 +972,7 @@
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -955,7 +981,7 @@
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,7 +990,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -973,7 +999,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -981,7 +1007,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -989,7 +1015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1031,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1013,7 +1039,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1029,7 +1055,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1063,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
+    <row r="22" spans="1:2" ht="95" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="126">
+    <row r="23" spans="1:2" ht="133" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>58</v>
       </c>
@@ -1053,7 +1079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="36">
+    <row r="24" spans="1:2" ht="38" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>60</v>
       </c>
@@ -1061,7 +1087,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="36">
+    <row r="25" spans="1:2" ht="38" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>62</v>
       </c>
@@ -1069,7 +1095,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="36">
+    <row r="26" spans="1:2" ht="38" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>64</v>
       </c>
@@ -1078,6 +1104,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90455C1-BE06-E549-AC8B-37B8CDE44263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18520" windowHeight="7020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -98,28 +92,13 @@
     <t>White</t>
   </si>
   <si>
-    <t>南投集集特生中心</t>
-  </si>
-  <si>
-    <t>國立臺灣大學</t>
-  </si>
-  <si>
     <t>Cloudy</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>停車場附近有樹叢與水池</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/577058697470156</t>
-  </si>
-  <si>
     <t>知本森林遊樂區</t>
-  </si>
-  <si>
-    <t>竹南</t>
   </si>
   <si>
     <t>停放在樹蔭下，車頭靠進灌叢</t>
@@ -228,15 +207,30 @@
   <si>
     <t>https://www.facebook.com/groups/577051257470900/permalink/577622054080487/</t>
   </si>
+  <si>
+    <t>南投水里</t>
+  </si>
+  <si>
+    <t>苗栗竹南</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>國立中興大學農環大樓</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/586456559863703/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -258,23 +252,9 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="MingLiU"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="SimSun"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -317,12 +297,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -347,37 +327,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -655,38 +620,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="17.875" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="26.5" style="7" customWidth="1"/>
-    <col min="19" max="19" width="67.625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.08984375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.453125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.08984375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" style="7" customWidth="1"/>
+    <col min="18" max="18" width="38.1796875" style="7" customWidth="1"/>
+    <col min="19" max="19" width="67.6328125" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" style="7" customWidth="1"/>
     <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,86 +713,77 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="4" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+    <row r="2" spans="1:20" ht="18.75">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>20230301</v>
+      <c r="B2" s="7">
+        <v>20190517</v>
       </c>
       <c r="C2" s="11">
-        <v>0.67361111111111105</v>
-      </c>
-      <c r="D2" s="12">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.625</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="7">
+        <v>120.99159899999999</v>
+      </c>
+      <c r="M2" s="7">
+        <v>22.686783999999999</v>
+      </c>
+      <c r="N2" s="7">
+        <v>120.873494840486</v>
+      </c>
+      <c r="O2" s="7">
+        <v>24.688740016228301</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="Q2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="15">
-        <v>120.800751607164</v>
-      </c>
-      <c r="M2" s="15">
-        <v>23.829187549321301</v>
-      </c>
-      <c r="N2" s="4">
-        <v>121.539881230166</v>
-      </c>
-      <c r="O2" s="4">
-        <v>25.018349608800101</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S2" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="7">
-        <v>20190517</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.70833333333333304</v>
+        <v>20230222</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.5625</v>
       </c>
       <c r="D3" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>22</v>
+        <v>0.17</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>23</v>
@@ -835,42 +791,42 @@
       <c r="I3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>32</v>
+      <c r="J3" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="L3" s="7">
-        <v>120.99159899999999</v>
+        <v>120.79544199999999</v>
       </c>
       <c r="M3" s="7">
-        <v>22.686783999999999</v>
+        <v>23.775696</v>
       </c>
       <c r="N3" s="7">
-        <v>120.873494840486</v>
+        <v>120.675545440764</v>
       </c>
       <c r="O3" s="7">
-        <v>24.688740016228301</v>
+        <v>24.1213111227318</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="S3" s="13" t="s">
         <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -878,233 +834,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="90">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="126">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="36">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="95" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
+      <c r="B24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="5" t="s">
+    </row>
+    <row r="25" spans="1:2" ht="36">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="133" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="26" spans="1:2" ht="36">
+      <c r="A26" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B005B-961F-3143-A076-F12CC97DA52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="18525" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22880" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -226,9 +232,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -327,10 +333,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -620,38 +626,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.453125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.90625" style="7" customWidth="1"/>
-    <col min="9" max="10" width="16.08984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="7" customWidth="1"/>
     <col min="11" max="11" width="23" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.08984375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" style="7" customWidth="1"/>
-    <col min="18" max="18" width="38.1796875" style="7" customWidth="1"/>
-    <col min="19" max="19" width="67.6328125" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="7" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="7" customWidth="1"/>
+    <col min="18" max="18" width="38.125" style="7" customWidth="1"/>
+    <col min="19" max="19" width="67.625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="7" customWidth="1"/>
     <col min="21" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -713,7 +719,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
+    <row r="2" spans="1:20">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -785,6 +791,15 @@
       <c r="D3" s="8">
         <v>0.17</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
@@ -825,8 +840,8 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -834,17 +849,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1019,7 +1034,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="90">
+    <row r="22" spans="1:2" ht="95">
       <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
@@ -1027,7 +1042,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="126">
+    <row r="23" spans="1:2" ht="133">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="36">
+    <row r="24" spans="1:2" ht="38">
       <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="36">
+    <row r="25" spans="1:2" ht="38">
       <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
@@ -1051,7 +1066,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="36">
+    <row r="26" spans="1:2" ht="38">
       <c r="A26" s="4" t="s">
         <v>59</v>
       </c>

--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Feng-Chuan/Documents/GitHub/2023_Ant_Hitchhiking_on_Vehicles_in_Taiwan/01_Data_raw/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1B005B-961F-3143-A076-F12CC97DA52D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22880" windowHeight="12160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -98,16 +92,34 @@
     <t>White</t>
   </si>
   <si>
+    <t>知本森林遊樂區</t>
+  </si>
+  <si>
+    <t>苗栗竹南</t>
+  </si>
+  <si>
     <t>Cloudy</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>知本森林遊樂區</t>
-  </si>
-  <si>
     <t>停放在樹蔭下，車頭靠進灌叢</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/577622054080487/</t>
+  </si>
+  <si>
+    <t>南投水里</t>
+  </si>
+  <si>
+    <t>國立中興大學農環大樓</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，有接觸到其他草叢或植物枝條</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/586456559863703/</t>
   </si>
   <si>
     <t>Column</t>
@@ -210,33 +222,19 @@
   <si>
     <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
   </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/577622054080487/</t>
-  </si>
-  <si>
-    <t>南投水里</t>
-  </si>
-  <si>
-    <t>苗栗竹南</t>
-  </si>
-  <si>
-    <t>停放在樹蔭下，有接觸到其他草叢或植物枝條</t>
-  </si>
-  <si>
-    <t>國立中興大學農環大樓</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/586456559863703/</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="23">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -248,13 +246,13 @@
       <sz val="14"/>
       <color rgb="FF800080"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
@@ -267,16 +265,146 @@
       <sz val="14"/>
       <color theme="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="BiauKai"/>
-      <family val="1"/>
-      <charset val="136"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -289,8 +417,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -298,17 +612,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -318,7 +871,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,16 +880,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -348,22 +895,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -621,43 +1211,43 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="12.5" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="7" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="7" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="7" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="7" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="7" customWidth="1"/>
-    <col min="18" max="18" width="38.125" style="7" customWidth="1"/>
-    <col min="19" max="19" width="67.625" style="7" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="7" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="38.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="67.625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -667,7 +1257,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -679,7 +1269,7 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -719,219 +1309,220 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="7">
+    <row r="2" spans="1:19">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>20190517</v>
       </c>
-      <c r="C2" s="11">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="D2" s="8">
+      <c r="C2" s="9">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="D2" s="6">
         <v>0.625</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1">
+        <v>120.991599</v>
+      </c>
+      <c r="M2" s="1">
+        <v>22.686784</v>
+      </c>
+      <c r="N2" s="1">
+        <v>120.873494840486</v>
+      </c>
+      <c r="O2" s="1">
+        <v>24.6887400162283</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="7">
-        <v>120.99159899999999</v>
-      </c>
-      <c r="M2" s="7">
-        <v>22.686783999999999</v>
-      </c>
-      <c r="N2" s="7">
-        <v>120.873494840486</v>
-      </c>
-      <c r="O2" s="7">
-        <v>24.688740016228301</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="12" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="7">
+      <c r="R2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="1">
         <v>20230222</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="9">
         <v>0.5625</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="6">
         <v>0.17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="7">
-        <v>120.79544199999999</v>
-      </c>
-      <c r="M3" s="7">
+      <c r="J3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1">
+        <v>120.795442</v>
+      </c>
+      <c r="M3" s="1">
         <v>23.775696</v>
       </c>
-      <c r="N3" s="7">
+      <c r="N3" s="1">
         <v>120.675545440764</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="1">
         <v>24.1213111227318</v>
       </c>
-      <c r="P3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" s="13" t="s">
-        <v>66</v>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="79.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -939,7 +1530,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -948,7 +1539,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -957,7 +1548,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -966,32 +1557,32 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -999,7 +1590,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1007,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1015,7 +1606,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1023,7 +1614,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1031,51 +1622,51 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="95">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="133">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="38">
+        <v>59</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="38">
+        <v>61</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" ht="35" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="38">
+        <v>63</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" ht="35" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
   <si>
     <t>ID</t>
   </si>
@@ -221,20 +221,28 @@
   </si>
   <si>
     <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
+  </si>
+  <si>
+    <t>彰化師範大學寶山校區</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，沒有接觸到樹枝，快要下雨，悶熱</t>
+  </si>
+  <si>
+    <t>國立彰化師範大學育成中心</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/616946893481336/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="7">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -268,143 +276,20 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,194 +302,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -612,256 +311,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -880,10 +340,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -895,61 +355,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1211,39 +631,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:T3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="23" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="38.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="67.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.08984375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.1796875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="14.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.08984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="49.6328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="67.6328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.08984375" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1279,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
@@ -1309,7 +730,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" ht="18.75">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1317,7 +738,7 @@
         <v>20190517</v>
       </c>
       <c r="C2" s="9">
-        <v>0.708333333333333</v>
+        <v>0.70833333333333304</v>
       </c>
       <c r="D2" s="6">
         <v>0.625</v>
@@ -1340,20 +761,20 @@
       <c r="J2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="1">
+        <v>120.99159899999999</v>
+      </c>
+      <c r="L2" s="1">
+        <v>22.686783999999999</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="L2" s="1">
-        <v>120.991599</v>
-      </c>
-      <c r="M2" s="1">
-        <v>22.686784</v>
       </c>
       <c r="N2" s="1">
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="1">
-        <v>24.6887400162283</v>
+        <v>24.688740016228301</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>27</v>
@@ -1368,7 +789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1399,14 +820,14 @@
       <c r="J3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1">
+        <v>120.79544199999999</v>
+      </c>
+      <c r="L3" s="1">
+        <v>23.775696</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="L3" s="1">
-        <v>120.795442</v>
-      </c>
-      <c r="M3" s="1">
-        <v>23.775696</v>
       </c>
       <c r="N3" s="1">
         <v>120.675545440764</v>
@@ -1427,33 +848,94 @@
         <v>34</v>
       </c>
     </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20230524</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1.31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="1">
+        <v>120.55804000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>24.065370000000001</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="1">
+        <v>120.557600375419</v>
+      </c>
+      <c r="O4" s="12">
+        <v>24.0656320952287</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="K6" s="12"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
-    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S2" r:id="rId1"/>
+    <hyperlink ref="S3" r:id="rId2"/>
+    <hyperlink ref="S4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1461,7 +943,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1469,7 +951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1477,7 +959,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1485,7 +967,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1493,7 +975,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -1509,7 +991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1517,7 +999,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1043,7 @@
       </c>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1569,7 +1051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1577,7 +1059,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1625,7 +1107,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" ht="87.5" spans="1:2">
+    <row r="22" spans="1:2" ht="90">
       <c r="A22" s="4" t="s">
         <v>57</v>
       </c>
@@ -1633,7 +1115,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" ht="122.5" spans="1:2">
+    <row r="23" spans="1:2" ht="126">
       <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
@@ -1641,7 +1123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" ht="35" spans="1:2">
+    <row r="24" spans="1:2" ht="36">
       <c r="A24" s="4" t="s">
         <v>61</v>
       </c>
@@ -1649,7 +1131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" ht="35" spans="1:2">
+    <row r="25" spans="1:2" ht="36">
       <c r="A25" s="4" t="s">
         <v>63</v>
       </c>
@@ -1657,7 +1139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" ht="35" spans="1:2">
+    <row r="26" spans="1:2" ht="36">
       <c r="A26" s="4" t="s">
         <v>65</v>
       </c>
@@ -1667,6 +1149,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/01_Data_raw/Ant_hitchhiking_data_full.xlsx
+++ b/01_Data_raw/Ant_hitchhiking_data_full.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18525" windowHeight="7020"/>
+    <workbookView windowWidth="18530" windowHeight="7020"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Column description" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -26,7 +26,7 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Parking_day</t>
+    <t>Parking_time</t>
   </si>
   <si>
     <t>Species_Chinese</t>
@@ -47,15 +47,15 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Location_lon</t>
+  </si>
+  <si>
+    <t>Location_lat</t>
+  </si>
+  <si>
     <t>Destination</t>
   </si>
   <si>
-    <t>Location_lon</t>
-  </si>
-  <si>
-    <t>Location_lat</t>
-  </si>
-  <si>
     <t>Destination_lon</t>
   </si>
   <si>
@@ -122,6 +122,56 @@
     <t>https://www.facebook.com/groups/577051257470900/permalink/586456559863703/</t>
   </si>
   <si>
+    <t>彰化師範大學寶山校區</t>
+  </si>
+  <si>
+    <t>國立彰化師範大學育成中心</t>
+  </si>
+  <si>
+    <t>停放在樹蔭下，沒有接觸到樹枝，快要下雨，悶熱</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/616946893481336/</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>台中市霧峰區仁德巷</t>
+  </si>
+  <si>
+    <t>台中市大里區仁愛路</t>
+  </si>
+  <si>
+    <t>Sunny</t>
+  </si>
+  <si>
+    <r>
+      <t>停放在樹蔭下，沒有接觸到樹枝，引擎蓋有鳥屎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <charset val="134"/>
+      </rPr>
+      <t>落果，主要集中在該處</t>
+    </r>
+  </si>
+  <si>
+    <t>https://www.facebook.com/groups/577051257470900/permalink/624541742721851/</t>
+  </si>
+  <si>
     <t>Column</t>
   </si>
   <si>
@@ -137,7 +187,7 @@
     <t>HH:MM</t>
   </si>
   <si>
-    <t>The parking duration of the vehicle in day</t>
+    <t>The parking duration of the vehicle in hour</t>
   </si>
   <si>
     <t>Chinese species name</t>
@@ -221,28 +271,20 @@
   </si>
   <si>
     <t>EVI of the location retrieved from Moderate Resolution Imaging Spectroradiometer https://rspatialdata.github.io/vegetation.html</t>
-  </si>
-  <si>
-    <t>彰化師範大學寶山校區</t>
-  </si>
-  <si>
-    <t>停放在樹蔭下，沒有接觸到樹枝，快要下雨，悶熱</t>
-  </si>
-  <si>
-    <t>國立彰化師範大學育成中心</t>
-  </si>
-  <si>
-    <t>https://www.facebook.com/groups/577051257470900/permalink/616946893481336/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="25">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -269,6 +311,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="14"/>
       <color theme="10"/>
@@ -276,20 +338,136 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="14"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,8 +480,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -311,17 +675,256 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -331,7 +934,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -340,10 +943,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -355,21 +958,70 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -631,40 +1283,40 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.08984375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.45625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.725" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.725" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.0875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.0875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.63125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.90625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.08984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6328125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08984375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="25.1796875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.0875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="24.63125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.45625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.0875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="25.18125" style="1" customWidth="1"/>
     <col min="14" max="14" width="14.90625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.36328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.08984375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="49.6328125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="67.6328125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.08984375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.3625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.45625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.0875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="63.4375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="67.63125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.0875" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -700,13 +1352,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
@@ -730,7 +1382,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75">
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -738,10 +1390,10 @@
         <v>20190517</v>
       </c>
       <c r="C2" s="9">
-        <v>0.70833333333333304</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="D2" s="6">
-        <v>0.625</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>20</v>
@@ -762,10 +1414,10 @@
         <v>25</v>
       </c>
       <c r="K2" s="1">
-        <v>120.99159899999999</v>
+        <v>120.991599</v>
       </c>
       <c r="L2" s="1">
-        <v>22.686783999999999</v>
+        <v>22.686784</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>26</v>
@@ -774,7 +1426,7 @@
         <v>120.873494840486</v>
       </c>
       <c r="O2" s="1">
-        <v>24.688740016228301</v>
+        <v>24.6887400162283</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>27</v>
@@ -785,11 +1437,11 @@
       <c r="R2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -800,7 +1452,7 @@
         <v>0.5625</v>
       </c>
       <c r="D3" s="6">
-        <v>0.17</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -821,7 +1473,7 @@
         <v>31</v>
       </c>
       <c r="K3" s="1">
-        <v>120.79544199999999</v>
+        <v>120.795442</v>
       </c>
       <c r="L3" s="1">
         <v>23.775696</v>
@@ -844,11 +1496,11 @@
       <c r="R3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -856,10 +1508,10 @@
         <v>20230524</v>
       </c>
       <c r="C4" s="9">
-        <v>0.70833333333333337</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="D4" s="6">
-        <v>1.31</v>
+        <v>31.5</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -877,21 +1529,21 @@
         <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="K4" s="1">
-        <v>120.55804000000001</v>
+        <v>120.55804</v>
       </c>
       <c r="L4" s="1">
-        <v>24.065370000000001</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>69</v>
+        <v>24.06537</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="N4" s="1">
         <v>120.557600375419</v>
       </c>
-      <c r="O4" s="12">
+      <c r="O4" s="11">
         <v>24.0656320952287</v>
       </c>
       <c r="P4" s="1" t="s">
@@ -900,111 +1552,173 @@
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="12" t="s">
-        <v>68</v>
+      <c r="R4" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="K6" s="12"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20230527</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="1">
+        <v>120.702749</v>
+      </c>
+      <c r="L5" s="1">
+        <v>24.052188</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="1">
+        <v>120.703474861381</v>
+      </c>
+      <c r="O5" s="1">
+        <v>24.0956752025246</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="11:11">
+      <c r="K6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1"/>
-    <hyperlink ref="S3" r:id="rId2"/>
-    <hyperlink ref="S4" r:id="rId3"/>
+    <hyperlink ref="S2" r:id="rId1" display="https://www.facebook.com/groups/577051257470900/permalink/577622054080487/"/>
+    <hyperlink ref="S3" r:id="rId2" display="https://www.facebook.com/groups/577051257470900/permalink/586456559863703/"/>
+    <hyperlink ref="S4" r:id="rId3" display="https://www.facebook.com/groups/577051257470900/permalink/616946893481336/"/>
+    <hyperlink ref="S5" r:id="rId4" display="https://www.facebook.com/groups/577051257470900/permalink/624541742721851/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.08984375" customWidth="1"/>
+    <col min="1" max="1" width="23.45625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="79.0875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1012,7 +1726,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3"/>
     </row>
@@ -1021,50 +1735,50 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="B14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1072,7 +1786,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1080,7 +1794,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1088,7 +1802,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1096,7 +1810,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1104,50 +1818,51 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="90">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" ht="87.5" spans="1:2">
       <c r="A22" s="4" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="126">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" ht="122.5" spans="1:2">
       <c r="A23" s="4" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="35" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" ht="35" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="36">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" ht="35" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>